--- a/rrd/AppData/Opp_Allocation.xlsx
+++ b/rrd/AppData/Opp_Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RRD\RRD_Opportunity\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38E447-505C-4653-A322-EFACFC6925D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0A198-52CB-426D-8B30-D0A4CEF8790F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opp_Allocation_config1" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFBF8A-E361-4C62-857B-D52976490620}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2327,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>18</v>
@@ -2365,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>18</v>

--- a/rrd/AppData/Opp_Allocation.xlsx
+++ b/rrd/AppData/Opp_Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0A198-52CB-426D-8B30-D0A4CEF8790F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E01AA-67DF-46B3-8516-8A3B54D835E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opp_Allocation_config1" sheetId="1" r:id="rId1"/>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFBF8A-E361-4C62-857B-D52976490620}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2759,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>27</v>
@@ -2882,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>27</v>
@@ -3015,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
@@ -3138,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>26</v>
